--- a/4_Testcase_output/Test Case.xlsx
+++ b/4_Testcase_output/Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09CE1CFA-7F91-4115-A8FA-5C36E2F2CFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FED67A-87BD-40F6-96A1-E4443FB3AD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">      Test Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t xml:space="preserve">   Required Input</t>
   </si>
@@ -45,9 +42,6 @@
     <t>USER HAVE TO SELECT A OPERATION</t>
   </si>
   <si>
-    <t xml:space="preserve">   Actual Input</t>
-  </si>
-  <si>
     <t>It should open simple calculator</t>
   </si>
   <si>
@@ -157,6 +151,54 @@
   </si>
   <si>
     <t>It should return factorial of operand</t>
+  </si>
+  <si>
+    <t>M01Q03</t>
+  </si>
+  <si>
+    <t>USER NEED TO ENTER DATA FOR SIMPLE INTEREST</t>
+  </si>
+  <si>
+    <t>PRINCPLE AMOUNT,RATE,TIME</t>
+  </si>
+  <si>
+    <t>It should accept all values</t>
+  </si>
+  <si>
+    <t>M01QA01</t>
+  </si>
+  <si>
+    <t>IT SHOULD INITATE AFTER M01Q03</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>It should return simple interest</t>
+  </si>
+  <si>
+    <t>M01W02</t>
+  </si>
+  <si>
+    <t>USER NEED TO ENTER DATA FOR COMPOUND INTEREST</t>
+  </si>
+  <si>
+    <t>M01WA01</t>
+  </si>
+  <si>
+    <t>USER NEED TO CHOOSE A MODE OF INTEREST</t>
+  </si>
+  <si>
+    <t>Option Based Input(1,2,3)</t>
+  </si>
+  <si>
+    <t>Result according to mode of interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Test Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Actual Input</t>
   </si>
 </sst>
 </file>
@@ -482,16 +524,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="3" width="37" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="33.77734375" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" customWidth="1"/>
@@ -499,30 +542,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -531,18 +574,18 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -551,18 +594,18 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -571,18 +614,18 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -591,38 +634,38 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -631,38 +674,38 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -671,38 +714,38 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -711,38 +754,38 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -751,38 +794,38 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -791,30 +834,110 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
